--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="35">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,14 @@
   </si>
   <si>
     <t>28307/25876.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>划拨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1555,6 +1563,114 @@
         <v>70396.899999999994</v>
       </c>
       <c r="F51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>2017.05</v>
+      </c>
+      <c r="B52" s="2">
+        <v>42877</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>3080</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ref="E52:E53" si="20">E51+D52</f>
+        <v>73476.899999999994</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>2017.05</v>
+      </c>
+      <c r="B53" s="2">
+        <v>42901</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53">
+        <f>-8988.15</f>
+        <v>-8988.15</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="20"/>
+        <v>64488.749999999993</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>2017.06</v>
+      </c>
+      <c r="B54" s="2">
+        <v>42914</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>3080</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ref="E54" si="21">E53+D54</f>
+        <v>67568.75</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>2017.06</v>
+      </c>
+      <c r="B55" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55">
+        <f>837.89</f>
+        <v>837.89</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ref="E55" si="22">E54+D55</f>
+        <v>68406.64</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>2017.06</v>
+      </c>
+      <c r="B56" s="2">
+        <v>42930</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56">
+        <f>-4486.25</f>
+        <v>-4486.25</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ref="E56" si="23">E55+D56</f>
+        <v>63920.39</v>
+      </c>
+      <c r="F56" t="s">
         <v>2</v>
       </c>
     </row>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="42">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,34 @@
   </si>
   <si>
     <t>利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月缴存额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年审前月数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年审后月数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年审前月数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年审后月数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费基数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1674,6 +1702,27 @@
         <v>2</v>
       </c>
     </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>2017.07</v>
+      </c>
+      <c r="B57" s="2">
+        <v>42941</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>3660</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ref="E57" si="24">E56+D57</f>
+        <v>67580.39</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1683,21 +1732,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
@@ -1705,30 +1755,30 @@
         <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>201605</v>
       </c>
@@ -1738,11 +1788,11 @@
       <c r="C3">
         <v>26083</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>24173</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>201606</v>
       </c>
@@ -1752,11 +1802,11 @@
       <c r="C4">
         <v>29794</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>26513</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1768,15 +1818,15 @@
         <v>30288</v>
       </c>
       <c r="D5">
+        <f>36716</f>
+        <v>36716</v>
+      </c>
+      <c r="G5">
         <f>24393</f>
         <v>24393</v>
       </c>
-      <c r="E5">
-        <f>36716</f>
-        <v>36716</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>201607</v>
       </c>
@@ -1787,13 +1837,13 @@
         <v>33999</v>
       </c>
       <c r="D6">
+        <v>39596</v>
+      </c>
+      <c r="G6">
         <v>26733</v>
       </c>
-      <c r="E6">
-        <v>39596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>201608</v>
       </c>
@@ -1805,14 +1855,14 @@
         <f>38035</f>
         <v>38035</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7">
+        <v>42676</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>42676</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>201609</v>
       </c>
@@ -1823,12 +1873,12 @@
       <c r="C8">
         <v>42071</v>
       </c>
-      <c r="D8" s="1">
+      <c r="G8" s="1">
         <f>27097</f>
         <v>27097</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>201610</v>
       </c>
@@ -1840,14 +1890,14 @@
         <f>46107</f>
         <v>46107</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9">
+        <v>149531</v>
+      </c>
+      <c r="G9" s="1">
         <v>27287</v>
       </c>
-      <c r="F9">
-        <v>149531</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>201611</v>
       </c>
@@ -1858,14 +1908,14 @@
       <c r="C10">
         <v>50143</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10">
+        <v>153021</v>
+      </c>
+      <c r="G10" s="1">
         <v>27481</v>
       </c>
-      <c r="F10">
-        <v>153021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>201612</v>
       </c>
@@ -1873,13 +1923,13 @@
         <f>54179</f>
         <v>54179</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="F11">
+      <c r="E11">
         <f>156511</f>
         <v>156511</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>201701</v>
       </c>
@@ -1891,16 +1941,16 @@
         <f>58215</f>
         <v>58215</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12">
+        <f>160001</f>
+        <v>160001</v>
+      </c>
+      <c r="G12" s="1">
         <f>25443</f>
         <v>25443</v>
       </c>
-      <c r="F12">
-        <f>160001</f>
-        <v>160001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>201702</v>
       </c>
@@ -1912,15 +1962,15 @@
         <f>24251</f>
         <v>24251</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13">
+        <v>163491</v>
+      </c>
+      <c r="G13" s="1">
         <f>28093</f>
         <v>28093</v>
       </c>
-      <c r="F13">
-        <v>163491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>201703</v>
       </c>
@@ -1931,15 +1981,15 @@
         <f>28287</f>
         <v>28287</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14">
+      <c r="E14">
         <f>166981</f>
         <v>166981</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>201704</v>
       </c>
@@ -1949,14 +1999,14 @@
       <c r="C15">
         <v>32323</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
+        <v>170471</v>
+      </c>
+      <c r="G15" s="1">
         <v>28526</v>
       </c>
-      <c r="F15" s="1">
-        <v>170471</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>201705</v>
       </c>
@@ -1966,124 +2016,268 @@
       <c r="C16">
         <v>36359</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
+        <v>173961</v>
+      </c>
+      <c r="G16" s="1">
         <f>28749</f>
         <v>28749</v>
       </c>
-      <c r="F16" s="1">
-        <v>173961</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>201706</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>201707</v>
+      </c>
+      <c r="B18" s="1">
+        <f>67929</f>
+        <v>67929</v>
+      </c>
+      <c r="C18">
+        <v>49716</v>
+      </c>
+      <c r="E18" s="1">
+        <f>187549</f>
+        <v>187549</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>1386</v>
+      </c>
+      <c r="C20">
+        <v>2334</v>
+      </c>
+      <c r="D20">
+        <v>1830</v>
+      </c>
+      <c r="E20">
+        <f>2112</f>
+        <v>2112</v>
+      </c>
+      <c r="G20">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B19">
-        <f>(B7-B6)/0.24</f>
-        <v>11225</v>
-      </c>
-      <c r="C19">
-        <f>(C7-C6)/0.24</f>
-        <v>16816.666666666668</v>
-      </c>
-      <c r="D19">
-        <f>(D13-D12)/0.24</f>
+      <c r="B22">
+        <f>B20/0.12</f>
+        <v>11550</v>
+      </c>
+      <c r="C22">
+        <f>C20/0.12</f>
+        <v>19450</v>
+      </c>
+      <c r="D22">
+        <f>D20/0.12</f>
+        <v>15250</v>
+      </c>
+      <c r="E22">
+        <f>E20/0.12</f>
+        <v>17600</v>
+      </c>
+      <c r="G22">
+        <f>G20/0.12</f>
         <v>11041.666666666668</v>
       </c>
-      <c r="E19">
-        <f>(E7-E6)/0.24</f>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>12000</v>
+      </c>
+      <c r="D24">
+        <v>14000</v>
+      </c>
+      <c r="E24">
+        <v>16000</v>
+      </c>
+      <c r="G24">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>11100</v>
+      </c>
+      <c r="D26">
+        <v>16500</v>
+      </c>
+      <c r="E26">
+        <v>19200</v>
+      </c>
+      <c r="G26">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <f>(B24*B25+B26*B27)/12</f>
+        <v>11550</v>
+      </c>
+      <c r="D28">
+        <f>(D24*D25+D26*D27)/12</f>
+        <v>15250</v>
+      </c>
+      <c r="E28">
+        <f>(E24*E25+E26*E27)/12</f>
+        <v>17600</v>
+      </c>
+      <c r="G28">
+        <f>(G24*G25+G26*G27)/12</f>
+        <v>6875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>10500</v>
+      </c>
+      <c r="D31">
+        <v>12000</v>
+      </c>
+      <c r="E31">
+        <v>13500</v>
+      </c>
+      <c r="G31">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>12000</v>
+      </c>
+      <c r="D33">
+        <v>14000</v>
+      </c>
+      <c r="E33">
+        <v>16000</v>
+      </c>
+      <c r="G33">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <f>12-B32</f>
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <f>12-D32</f>
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <f>12-E32</f>
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <f>12-G32</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <f>(B31*B32+B33*B34)/12</f>
+        <v>11125</v>
+      </c>
+      <c r="D35">
+        <f>(D31*D32+D33*D34)/12</f>
         <v>12833.333333333334</v>
       </c>
-      <c r="F19">
-        <f>(F14-F13)/0.24</f>
-        <v>14541.666666666668</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21">
-        <v>10500</v>
-      </c>
-      <c r="D21">
-        <v>10000</v>
-      </c>
-      <c r="E21">
-        <v>12000</v>
-      </c>
-      <c r="F21">
-        <v>13500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <v>7</v>
-      </c>
-      <c r="F22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23">
-        <v>12000</v>
-      </c>
-      <c r="D23">
-        <v>12500</v>
-      </c>
-      <c r="E23">
-        <v>14000</v>
-      </c>
-      <c r="F23">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B24">
-        <f>12-B22</f>
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <f>12-D22</f>
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <f>12-E22</f>
-        <v>5</v>
-      </c>
-      <c r="F24">
-        <f>12-F22</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B25">
-        <f>(B21*B22+B23*B24)/12</f>
-        <v>11125</v>
-      </c>
-      <c r="D25">
-        <f>(D21*D22+D23*D24)/12</f>
+      <c r="E35">
+        <f>(E31*E32+E33*E34)/12</f>
+        <v>14541.666666666666</v>
+      </c>
+      <c r="G35">
+        <f>(G31*G32+G33*G34)/12</f>
         <v>11041.666666666666</v>
-      </c>
-      <c r="E25">
-        <f>(E21*E22+E23*E24)/12</f>
-        <v>12833.333333333334</v>
-      </c>
-      <c r="F25">
-        <f>(F21*F22+F23*F24)/12</f>
-        <v>14541.666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57:F57"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1723,6 +1723,49 @@
         <v>2</v>
       </c>
     </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>2017.08</v>
+      </c>
+      <c r="B58" s="2">
+        <v>42963</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58">
+        <f>-4478.44</f>
+        <v>-4478.4399999999996</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ref="E58:E59" si="25">E57+D58</f>
+        <v>63101.95</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>2017.08</v>
+      </c>
+      <c r="B59" s="2">
+        <v>42976</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59">
+        <v>3660</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="25"/>
+        <v>66761.95</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1732,10 +1775,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2050,233 +2093,248 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>201708</v>
+      </c>
+      <c r="B19" s="1">
+        <v>68065</v>
+      </c>
+      <c r="C19">
+        <v>54382</v>
+      </c>
+      <c r="E19" s="1">
+        <v>49873</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>1386</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>2334</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>1830</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <f>2112</f>
         <v>2112</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>1325</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B22">
-        <f>B20/0.12</f>
+      <c r="B23">
+        <f>B21/0.12</f>
         <v>11550</v>
       </c>
-      <c r="C22">
-        <f>C20/0.12</f>
+      <c r="C23">
+        <f>C21/0.12</f>
         <v>19450</v>
       </c>
-      <c r="D22">
-        <f>D20/0.12</f>
+      <c r="D23">
+        <f>D21/0.12</f>
         <v>15250</v>
       </c>
-      <c r="E22">
-        <f>E20/0.12</f>
+      <c r="E23">
+        <f>E21/0.12</f>
         <v>17600</v>
       </c>
-      <c r="G22">
-        <f>G20/0.12</f>
+      <c r="G23">
+        <f>G21/0.12</f>
         <v>11041.666666666668</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24">
-        <v>12000</v>
-      </c>
-      <c r="D24">
-        <v>14000</v>
-      </c>
-      <c r="E24">
-        <v>16000</v>
-      </c>
-      <c r="G24">
-        <v>12500</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>12000</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>14000</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>16000</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B26">
-        <v>11100</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>16500</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>19200</v>
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>1250</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>11100</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>16500</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>19200</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="B28">
-        <f>(B24*B25+B26*B27)/12</f>
+      <c r="B29">
+        <f>(B25*B26+B27*B28)/12</f>
         <v>11550</v>
       </c>
-      <c r="D28">
-        <f>(D24*D25+D26*D27)/12</f>
+      <c r="D29">
+        <f>(D25*D26+D27*D28)/12</f>
         <v>15250</v>
       </c>
-      <c r="E28">
-        <f>(E24*E25+E26*E27)/12</f>
+      <c r="E29">
+        <f>(E25*E26+E27*E28)/12</f>
         <v>17600</v>
       </c>
-      <c r="G28">
-        <f>(G24*G25+G26*G27)/12</f>
+      <c r="G29">
+        <f>(G25*G26+G27*G28)/12</f>
         <v>6875</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>10500</v>
-      </c>
-      <c r="D31">
-        <v>12000</v>
-      </c>
-      <c r="E31">
-        <v>13500</v>
-      </c>
-      <c r="G31">
-        <v>10000</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>10500</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>12000</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>13500</v>
       </c>
       <c r="G32">
-        <v>7</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>12000</v>
+        <v>7</v>
       </c>
       <c r="D33">
-        <v>14000</v>
+        <v>7</v>
       </c>
       <c r="E33">
-        <v>16000</v>
+        <v>7</v>
       </c>
       <c r="G33">
-        <v>12500</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B34">
-        <f>12-B32</f>
-        <v>5</v>
+        <v>12000</v>
       </c>
       <c r="D34">
-        <f>12-D32</f>
-        <v>5</v>
+        <v>14000</v>
       </c>
       <c r="E34">
-        <f>12-E32</f>
-        <v>5</v>
+        <v>16000</v>
       </c>
       <c r="G34">
-        <f>12-G32</f>
-        <v>5</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <f>12-B33</f>
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <f>12-D33</f>
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <f>12-E33</f>
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <f>12-G33</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B35">
-        <f>(B31*B32+B33*B34)/12</f>
+      <c r="B36">
+        <f>(B32*B33+B34*B35)/12</f>
         <v>11125</v>
       </c>
-      <c r="D35">
-        <f>(D31*D32+D33*D34)/12</f>
+      <c r="D36">
+        <f>(D32*D33+D34*D35)/12</f>
         <v>12833.333333333334</v>
       </c>
-      <c r="E35">
-        <f>(E31*E32+E33*E34)/12</f>
+      <c r="E36">
+        <f>(E32*E33+E34*E35)/12</f>
         <v>14541.666666666666</v>
       </c>
-      <c r="G35">
-        <f>(G31*G32+G33*G34)/12</f>
+      <c r="G36">
+        <f>(G32*G33+G34*G35)/12</f>
         <v>11041.666666666666</v>
       </c>
     </row>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="42">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1766,6 +1766,69 @@
         <v>2</v>
       </c>
     </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>2017.09</v>
+      </c>
+      <c r="B60" s="2">
+        <v>43018</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>3660</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ref="E60" si="26">E59+D60</f>
+        <v>70421.95</v>
+      </c>
+      <c r="F60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>2017.09</v>
+      </c>
+      <c r="B61" s="2">
+        <v>43024</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61">
+        <v>-4462.79</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ref="E61:E62" si="27">E60+D61</f>
+        <v>65959.16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>2017.1</v>
+      </c>
+      <c r="B62" s="2">
+        <v>43042</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>3660</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="27"/>
+        <v>69619.16</v>
+      </c>
+      <c r="F62" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1775,10 +1838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2108,233 +2171,272 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>201709</v>
+      </c>
+      <c r="B20" s="1">
+        <f>65565</f>
+        <v>65565</v>
+      </c>
+      <c r="C20">
+        <f>59048</f>
+        <v>59048</v>
+      </c>
+      <c r="E20" s="1">
+        <f>54097</f>
+        <v>54097</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="A21">
+        <v>201710</v>
+      </c>
+      <c r="B21" s="1">
+        <f>68337</f>
+        <v>68337</v>
+      </c>
+      <c r="C21">
+        <v>63714</v>
+      </c>
+      <c r="E21" s="1">
+        <v>58321</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>35</v>
       </c>
-      <c r="B21">
+      <c r="B24">
         <v>1386</v>
       </c>
-      <c r="C21">
+      <c r="C24">
         <v>2334</v>
       </c>
-      <c r="D21">
+      <c r="D24">
         <v>1830</v>
       </c>
-      <c r="E21">
+      <c r="E24">
         <f>2112</f>
         <v>2112</v>
       </c>
-      <c r="G21">
+      <c r="G24">
         <v>1325</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <f>B21/0.12</f>
-        <v>11550</v>
-      </c>
-      <c r="C23">
-        <f>C21/0.12</f>
-        <v>19450</v>
-      </c>
-      <c r="D23">
-        <f>D21/0.12</f>
-        <v>15250</v>
-      </c>
-      <c r="E23">
-        <f>E21/0.12</f>
-        <v>17600</v>
-      </c>
-      <c r="G23">
-        <f>G21/0.12</f>
-        <v>11041.666666666668</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>12000</v>
-      </c>
-      <c r="D25">
-        <v>14000</v>
-      </c>
-      <c r="E25">
-        <v>16000</v>
-      </c>
-      <c r="G25">
-        <v>12500</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <f>B24/0.12</f>
+        <v>11550</v>
+      </c>
+      <c r="C26">
+        <f>C24/0.12</f>
+        <v>19450</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <f>D24/0.12</f>
+        <v>15250</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <f>E24/0.12</f>
+        <v>17600</v>
       </c>
       <c r="G26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27">
-        <v>11100</v>
-      </c>
-      <c r="D27">
-        <v>16500</v>
-      </c>
-      <c r="E27">
-        <v>19200</v>
-      </c>
-      <c r="G27">
-        <v>1250</v>
+        <f>G24/0.12</f>
+        <v>11041.666666666668</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>12000</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>14000</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>16000</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <f>(B25*B26+B27*B28)/12</f>
-        <v>11550</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <f>(D25*D26+D27*D28)/12</f>
-        <v>15250</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <f>(E25*E26+E27*E28)/12</f>
-        <v>17600</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <f>(G25*G26+G27*G28)/12</f>
-        <v>6875</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>11100</v>
+      </c>
+      <c r="D30">
+        <v>16500</v>
+      </c>
+      <c r="E30">
+        <v>19200</v>
+      </c>
+      <c r="G30">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>10500</v>
+        <f>(B28*B29+B30*B31)/12</f>
+        <v>11550</v>
       </c>
       <c r="D32">
-        <v>12000</v>
+        <f>(D28*D29+D30*D31)/12</f>
+        <v>15250</v>
       </c>
       <c r="E32">
-        <v>13500</v>
+        <f>(E28*E29+E30*E31)/12</f>
+        <v>17600</v>
       </c>
       <c r="G32">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33">
-        <v>7</v>
-      </c>
-      <c r="D33">
-        <v>7</v>
-      </c>
-      <c r="E33">
-        <v>7</v>
-      </c>
-      <c r="G33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34">
-        <v>12000</v>
-      </c>
-      <c r="D34">
-        <v>14000</v>
-      </c>
-      <c r="E34">
-        <v>16000</v>
-      </c>
-      <c r="G34">
-        <v>12500</v>
+        <f>(G28*G29+G30*G31)/12</f>
+        <v>6875</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B35">
-        <f>12-B33</f>
-        <v>5</v>
+        <v>10500</v>
       </c>
       <c r="D35">
-        <f>12-D33</f>
-        <v>5</v>
+        <v>12000</v>
       </c>
       <c r="E35">
-        <f>12-E33</f>
-        <v>5</v>
+        <v>13500</v>
       </c>
       <c r="G35">
-        <f>12-G33</f>
-        <v>5</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <v>12000</v>
+      </c>
+      <c r="D37">
+        <v>14000</v>
+      </c>
+      <c r="E37">
+        <v>16000</v>
+      </c>
+      <c r="G37">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <f>12-B36</f>
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <f>12-D36</f>
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <f>12-E36</f>
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <f>12-G36</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="B36">
-        <f>(B32*B33+B34*B35)/12</f>
+      <c r="B39">
+        <f>(B35*B36+B37*B38)/12</f>
         <v>11125</v>
       </c>
-      <c r="D36">
-        <f>(D32*D33+D34*D35)/12</f>
+      <c r="D39">
+        <f>(D35*D36+D37*D38)/12</f>
         <v>12833.333333333334</v>
       </c>
-      <c r="E36">
-        <f>(E32*E33+E34*E35)/12</f>
+      <c r="E39">
+        <f>(E35*E36+E37*E38)/12</f>
         <v>14541.666666666666</v>
       </c>
-      <c r="G36">
-        <f>(G32*G33+G34*G35)/12</f>
+      <c r="G39">
+        <f>(G35*G36+G37*G38)/12</f>
         <v>11041.666666666666</v>
       </c>
     </row>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的家\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="43">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,10 @@
   </si>
   <si>
     <t>缴费基数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F62"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1617,7 +1622,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>2017.05</v>
+        <v>2017.06</v>
       </c>
       <c r="B53" s="2">
         <v>42901</v>
@@ -1682,7 +1687,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>2017.06</v>
+        <v>2017.07</v>
       </c>
       <c r="B56" s="2">
         <v>42930</v>
@@ -1771,17 +1776,17 @@
         <v>2017.09</v>
       </c>
       <c r="B60" s="2">
-        <v>43018</v>
+        <v>42992</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D60">
-        <v>3660</v>
+        <v>-4470.62</v>
       </c>
       <c r="E60">
-        <f t="shared" ref="E60" si="26">E59+D60</f>
-        <v>70421.95</v>
+        <f t="shared" ref="E60:E61" si="26">E59+D60</f>
+        <v>62291.329999999994</v>
       </c>
       <c r="F60" t="s">
         <v>2</v>
@@ -1792,40 +1797,82 @@
         <v>2017.09</v>
       </c>
       <c r="B61" s="2">
+        <v>43018</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>3660</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="26"/>
+        <v>65951.329999999987</v>
+      </c>
+      <c r="F61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="2">
         <v>43024</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D61">
+      <c r="D62">
         <v>-4462.79</v>
       </c>
-      <c r="E61">
-        <f t="shared" ref="E61:E62" si="27">E60+D61</f>
-        <v>65959.16</v>
-      </c>
-      <c r="F61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <v>2017.1</v>
-      </c>
-      <c r="B62" s="2">
+      <c r="E62">
+        <f t="shared" ref="E62:E64" si="27">E61+D62</f>
+        <v>61488.539999999986</v>
+      </c>
+      <c r="F62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="2">
         <v>43042</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62">
+      <c r="C63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63">
         <v>3660</v>
       </c>
-      <c r="E62">
+      <c r="E63">
+        <f>E62+D63</f>
+        <v>65148.539999999986</v>
+      </c>
+      <c r="F63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>2017.11</v>
+      </c>
+      <c r="B64" s="2">
+        <v>43054</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64">
+        <v>-4454.97</v>
+      </c>
+      <c r="E64">
         <f t="shared" si="27"/>
-        <v>69619.16</v>
-      </c>
-      <c r="F62" t="s">
+        <v>60693.569999999985</v>
+      </c>
+      <c r="F64" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1838,9 +1885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="43">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -539,10 +539,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65:F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1876,6 +1876,27 @@
         <v>2</v>
       </c>
     </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>2017.11</v>
+      </c>
+      <c r="B65" s="2">
+        <v>43066</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>3660</v>
+      </c>
+      <c r="E65">
+        <f>E64+D65</f>
+        <v>64353.569999999985</v>
+      </c>
+      <c r="F65" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1886,10 +1907,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2253,238 +2275,255 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="A22">
+        <v>201711</v>
+      </c>
+      <c r="B22" s="1">
+        <f>68473</f>
+        <v>68473</v>
+      </c>
+      <c r="C22">
+        <v>68380</v>
+      </c>
+      <c r="E22" s="1">
+        <f>62545</f>
+        <v>62545</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="1"/>
+      <c r="E23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>1386</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>2334</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>1830</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <f>2112</f>
         <v>2112</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>1325</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B26">
-        <f>B24/0.12</f>
+      <c r="B27">
+        <f>B25/0.12</f>
         <v>11550</v>
       </c>
-      <c r="C26">
-        <f>C24/0.12</f>
+      <c r="C27">
+        <f>C25/0.12</f>
         <v>19450</v>
       </c>
-      <c r="D26">
-        <f>D24/0.12</f>
+      <c r="D27">
+        <f>D25/0.12</f>
         <v>15250</v>
       </c>
-      <c r="E26">
-        <f>E24/0.12</f>
+      <c r="E27">
+        <f>E25/0.12</f>
         <v>17600</v>
       </c>
-      <c r="G26">
-        <f>G24/0.12</f>
+      <c r="G27">
+        <f>G25/0.12</f>
         <v>11041.666666666668</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>12000</v>
-      </c>
-      <c r="D28">
-        <v>14000</v>
-      </c>
-      <c r="E28">
-        <v>16000</v>
-      </c>
-      <c r="G28">
-        <v>12500</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>12000</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>14000</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>16000</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>11100</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>16500</v>
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>19200</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>1250</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>11100</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>16500</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>19200</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="B32">
-        <f>(B28*B29+B30*B31)/12</f>
+      <c r="B33">
+        <f>(B29*B30+B31*B32)/12</f>
         <v>11550</v>
       </c>
-      <c r="D32">
-        <f>(D28*D29+D30*D31)/12</f>
+      <c r="D33">
+        <f>(D29*D30+D31*D32)/12</f>
         <v>15250</v>
       </c>
-      <c r="E32">
-        <f>(E28*E29+E30*E31)/12</f>
+      <c r="E33">
+        <f>(E29*E30+E31*E32)/12</f>
         <v>17600</v>
       </c>
-      <c r="G32">
-        <f>(G28*G29+G30*G31)/12</f>
+      <c r="G33">
+        <f>(G29*G30+G31*G32)/12</f>
         <v>6875</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35">
-        <v>10500</v>
-      </c>
-      <c r="D35">
-        <v>12000</v>
-      </c>
-      <c r="E35">
-        <v>13500</v>
-      </c>
-      <c r="G35">
-        <v>10000</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>10500</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>12000</v>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>13500</v>
       </c>
       <c r="G36">
-        <v>7</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>12000</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>14000</v>
+        <v>7</v>
       </c>
       <c r="E37">
-        <v>16000</v>
+        <v>7</v>
       </c>
       <c r="G37">
-        <v>12500</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B38">
-        <f>12-B36</f>
-        <v>5</v>
+        <v>12000</v>
       </c>
       <c r="D38">
-        <f>12-D36</f>
-        <v>5</v>
+        <v>14000</v>
       </c>
       <c r="E38">
-        <f>12-E36</f>
-        <v>5</v>
+        <v>16000</v>
       </c>
       <c r="G38">
-        <f>12-G36</f>
-        <v>5</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f>12-B37</f>
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <f>12-D37</f>
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <f>12-E37</f>
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <f>12-G37</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B39">
-        <f>(B35*B36+B37*B38)/12</f>
+      <c r="B40">
+        <f>(B36*B37+B38*B39)/12</f>
         <v>11125</v>
       </c>
-      <c r="D39">
-        <f>(D35*D36+D37*D38)/12</f>
+      <c r="D40">
+        <f>(D36*D37+D38*D39)/12</f>
         <v>12833.333333333334</v>
       </c>
-      <c r="E39">
-        <f>(E35*E36+E37*E38)/12</f>
+      <c r="E40">
+        <f>(E36*E37+E38*E39)/12</f>
         <v>14541.666666666666</v>
       </c>
-      <c r="G39">
-        <f>(G35*G36+G37*G38)/12</f>
+      <c r="G40">
+        <f>(G36*G37+G38*G39)/12</f>
         <v>11041.666666666666</v>
       </c>
     </row>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="43">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -539,10 +539,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65:F65"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1890,10 +1890,137 @@
         <v>3660</v>
       </c>
       <c r="E65">
-        <f>E64+D65</f>
+        <f t="shared" ref="E65:E71" si="28">E64+D65</f>
         <v>64353.569999999985</v>
       </c>
       <c r="F65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>2017.12</v>
+      </c>
+      <c r="B66" s="2">
+        <v>43084</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66">
+        <f>-4447.15</f>
+        <v>-4447.1499999999996</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="28"/>
+        <v>59906.419999999984</v>
+      </c>
+      <c r="F66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>2017.12</v>
+      </c>
+      <c r="B67" s="2">
+        <v>43097</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67">
+        <v>3660</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="28"/>
+        <v>63566.419999999984</v>
+      </c>
+      <c r="F67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>2018.01</v>
+      </c>
+      <c r="B68" s="2">
+        <v>43116</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68">
+        <v>-4439.34</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="28"/>
+        <v>59127.079999999987</v>
+      </c>
+      <c r="F68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>2018.01</v>
+      </c>
+      <c r="B69" s="2">
+        <v>43129</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69">
+        <v>3660</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="28"/>
+        <v>62787.079999999987</v>
+      </c>
+      <c r="F69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>2018.02</v>
+      </c>
+      <c r="B70" s="2">
+        <v>43144</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70">
+        <v>3660</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="28"/>
+        <v>66447.079999999987</v>
+      </c>
+      <c r="F70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>2018.02</v>
+      </c>
+      <c r="B71" s="2">
+        <v>43144</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71">
+        <v>-4431.51</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="28"/>
+        <v>62015.569999999985</v>
+      </c>
+      <c r="F71" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1907,11 +2034,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2292,238 +2419,294 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="A23">
+        <v>201712</v>
+      </c>
+      <c r="B23" s="1">
+        <f>68609</f>
+        <v>68609</v>
+      </c>
+      <c r="C23">
+        <f>73046</f>
+        <v>73046</v>
+      </c>
+      <c r="E23" s="1">
+        <f>66769</f>
+        <v>66769</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>201801</v>
+      </c>
+      <c r="B24" s="1">
+        <f>68745</f>
+        <v>68745</v>
+      </c>
+      <c r="C24">
+        <f>77712</f>
+        <v>77712</v>
+      </c>
+      <c r="E24" s="1">
+        <f>70993</f>
+        <v>70993</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>201803</v>
+      </c>
+      <c r="B26" s="1">
+        <f>69017</f>
+        <v>69017</v>
+      </c>
+      <c r="C26">
+        <v>87044</v>
+      </c>
+      <c r="E26" s="1">
+        <f>79441</f>
+        <v>79441</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="B25">
+      <c r="B29">
         <v>1386</v>
       </c>
-      <c r="C25">
+      <c r="C29">
         <v>2334</v>
       </c>
-      <c r="D25">
+      <c r="D29">
         <v>1830</v>
       </c>
-      <c r="E25">
+      <c r="E29">
         <f>2112</f>
         <v>2112</v>
       </c>
-      <c r="G25">
+      <c r="G29">
         <v>1325</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <f>B25/0.12</f>
-        <v>11550</v>
-      </c>
-      <c r="C27">
-        <f>C25/0.12</f>
-        <v>19450</v>
-      </c>
-      <c r="D27">
-        <f>D25/0.12</f>
-        <v>15250</v>
-      </c>
-      <c r="E27">
-        <f>E25/0.12</f>
-        <v>17600</v>
-      </c>
-      <c r="G27">
-        <f>G25/0.12</f>
-        <v>11041.666666666668</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>12000</v>
-      </c>
-      <c r="D29">
-        <v>14000</v>
-      </c>
-      <c r="E29">
-        <v>16000</v>
-      </c>
-      <c r="G29">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="D30">
-        <v>6</v>
-      </c>
-      <c r="E30">
-        <v>6</v>
-      </c>
-      <c r="G30">
-        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>11100</v>
+        <f>B29/0.12</f>
+        <v>11550</v>
+      </c>
+      <c r="C31">
+        <f>C29/0.12</f>
+        <v>19450</v>
       </c>
       <c r="D31">
-        <v>16500</v>
+        <f>D29/0.12</f>
+        <v>15250</v>
       </c>
       <c r="E31">
-        <v>19200</v>
+        <f>E29/0.12</f>
+        <v>17600</v>
       </c>
       <c r="G31">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="D32">
-        <v>6</v>
-      </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
+        <f>G29/0.12</f>
+        <v>11041.666666666668</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B33">
-        <f>(B29*B30+B31*B32)/12</f>
-        <v>11550</v>
+        <v>12000</v>
       </c>
       <c r="D33">
-        <f>(D29*D30+D31*D32)/12</f>
-        <v>15250</v>
+        <v>14000</v>
       </c>
       <c r="E33">
-        <f>(E29*E30+E31*E32)/12</f>
-        <v>17600</v>
+        <v>16000</v>
       </c>
       <c r="G33">
-        <f>(G29*G30+G31*G32)/12</f>
-        <v>6875</v>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>11100</v>
+      </c>
+      <c r="D35">
+        <v>16500</v>
+      </c>
+      <c r="E35">
+        <v>19200</v>
+      </c>
+      <c r="G35">
+        <v>1250</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>10500</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>12000</v>
+        <v>6</v>
       </c>
       <c r="E36">
-        <v>13500</v>
+        <v>6</v>
       </c>
       <c r="G36">
-        <v>10000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <f>(B33*B34+B35*B36)/12</f>
+        <v>11550</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <f>(D33*D34+D35*D36)/12</f>
+        <v>15250</v>
       </c>
       <c r="E37">
-        <v>7</v>
+        <f>(E33*E34+E35*E36)/12</f>
+        <v>17600</v>
       </c>
       <c r="G37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38">
-        <v>12000</v>
-      </c>
-      <c r="D38">
-        <v>14000</v>
-      </c>
-      <c r="E38">
-        <v>16000</v>
-      </c>
-      <c r="G38">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <f>12-B37</f>
-        <v>5</v>
-      </c>
-      <c r="D39">
-        <f>12-D37</f>
-        <v>5</v>
-      </c>
-      <c r="E39">
-        <f>12-E37</f>
-        <v>5</v>
-      </c>
-      <c r="G39">
-        <f>12-G37</f>
-        <v>5</v>
+        <f>(G33*G34+G35*G36)/12</f>
+        <v>6875</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40">
+        <v>10500</v>
+      </c>
+      <c r="D40">
+        <v>12000</v>
+      </c>
+      <c r="E40">
+        <v>13500</v>
+      </c>
+      <c r="G40">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>7</v>
+      </c>
+      <c r="G41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42">
+        <v>12000</v>
+      </c>
+      <c r="D42">
+        <v>14000</v>
+      </c>
+      <c r="E42">
+        <v>16000</v>
+      </c>
+      <c r="G42">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43">
+        <f>12-B41</f>
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <f>12-D41</f>
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <f>12-E41</f>
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <f>12-G41</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>41</v>
       </c>
-      <c r="B40">
-        <f>(B36*B37+B38*B39)/12</f>
+      <c r="B44">
+        <f>(B40*B41+B42*B43)/12</f>
         <v>11125</v>
       </c>
-      <c r="D40">
-        <f>(D36*D37+D38*D39)/12</f>
+      <c r="D44">
+        <f>(D40*D41+D42*D43)/12</f>
         <v>12833.333333333334</v>
       </c>
-      <c r="E40">
-        <f>(E36*E37+E38*E39)/12</f>
+      <c r="E44">
+        <f>(E40*E41+E42*E43)/12</f>
         <v>14541.666666666666</v>
       </c>
-      <c r="G40">
-        <f>(G36*G37+G38*G39)/12</f>
+      <c r="G44">
+        <f>(G40*G41+G42*G43)/12</f>
         <v>11041.666666666666</v>
       </c>
     </row>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="58">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
     <t>谭德晟</t>
   </si>
   <si>
-    <t>苏建超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>何斌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,6 +186,70 @@
   </si>
   <si>
     <t>2017.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗义璋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>432524198305070015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430603198508043537</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷珊丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430122198511110034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>432503198802280089</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁湘亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43032119830430712X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李肖渊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430122198704285535</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>420581198703210056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘琪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43060219870531351X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗威</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,10 +599,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1628,7 +1688,7 @@
         <v>42901</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D53">
         <f>-8988.15</f>
@@ -1671,7 +1731,7 @@
         <v>42916</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D55">
         <f>837.89</f>
@@ -1693,7 +1753,7 @@
         <v>42930</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D56">
         <f>-4486.25</f>
@@ -1736,7 +1796,7 @@
         <v>42963</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D58">
         <f>-4478.44</f>
@@ -1779,7 +1839,7 @@
         <v>42992</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D60">
         <v>-4470.62</v>
@@ -1815,13 +1875,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B62" s="2">
         <v>43024</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D62">
         <v>-4462.79</v>
@@ -1836,7 +1896,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B63" s="2">
         <v>43042</v>
@@ -1863,7 +1923,7 @@
         <v>43054</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D64">
         <v>-4454.97</v>
@@ -1905,7 +1965,7 @@
         <v>43084</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D66">
         <f>-4447.15</f>
@@ -1948,7 +2008,7 @@
         <v>43116</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D68">
         <v>-4439.34</v>
@@ -2011,7 +2071,7 @@
         <v>43144</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D71">
         <v>-4431.51</v>
@@ -2022,6 +2082,119 @@
       </c>
       <c r="F71" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>2018.03</v>
+      </c>
+      <c r="B72" s="2">
+        <v>43175</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72">
+        <v>-4423.6899999999996</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ref="E72:E76" si="29">E71+D72</f>
+        <v>57591.879999999983</v>
+      </c>
+      <c r="F72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>2018.03</v>
+      </c>
+      <c r="B73" s="2">
+        <v>42458</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>3660</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="29"/>
+        <v>61251.879999999983</v>
+      </c>
+      <c r="F73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>2018.04</v>
+      </c>
+      <c r="B74" s="2">
+        <v>43207</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74">
+        <v>-4415.87</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="29"/>
+        <v>56836.00999999998</v>
+      </c>
+      <c r="F74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>2018.04</v>
+      </c>
+      <c r="B75" s="2">
+        <v>43208</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>3660</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="29"/>
+        <v>60496.00999999998</v>
+      </c>
+      <c r="F75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>2018.05</v>
+      </c>
+      <c r="B76" s="2">
+        <v>43236</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76">
+        <v>-4408.05</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="29"/>
+        <v>56087.959999999977</v>
+      </c>
+      <c r="F76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>2018.05</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2034,23 +2207,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="11" width="19.375" customWidth="1"/>
+    <col min="12" max="13" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
@@ -2061,27 +2236,72 @@
         <v>20</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>201605</v>
       </c>
@@ -2091,11 +2311,11 @@
       <c r="C3">
         <v>26083</v>
       </c>
-      <c r="G3">
+      <c r="M3">
         <v>24173</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>201606</v>
       </c>
@@ -2105,13 +2325,13 @@
       <c r="C4">
         <v>29794</v>
       </c>
-      <c r="G4">
+      <c r="M4">
         <v>26513</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>58213</v>
@@ -2120,16 +2340,12 @@
         <f>30288</f>
         <v>30288</v>
       </c>
-      <c r="D5">
-        <f>36716</f>
-        <v>36716</v>
-      </c>
-      <c r="G5">
+      <c r="M5">
         <f>24393</f>
         <v>24393</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>201607</v>
       </c>
@@ -2139,14 +2355,11 @@
       <c r="C6">
         <v>33999</v>
       </c>
-      <c r="D6">
-        <v>39596</v>
-      </c>
-      <c r="G6">
+      <c r="M6">
         <v>26733</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>201608</v>
       </c>
@@ -2158,14 +2371,11 @@
         <f>38035</f>
         <v>38035</v>
       </c>
-      <c r="D7">
-        <v>42676</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="M7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>201609</v>
       </c>
@@ -2176,12 +2386,12 @@
       <c r="C8">
         <v>42071</v>
       </c>
-      <c r="G8" s="1">
+      <c r="M8" s="1">
         <f>27097</f>
         <v>27097</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>201610</v>
       </c>
@@ -2193,14 +2403,14 @@
         <f>46107</f>
         <v>46107</v>
       </c>
-      <c r="E9">
+      <c r="D9">
         <v>149531</v>
       </c>
-      <c r="G9" s="1">
+      <c r="M9" s="1">
         <v>27287</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>201611</v>
       </c>
@@ -2211,14 +2421,14 @@
       <c r="C10">
         <v>50143</v>
       </c>
-      <c r="E10">
+      <c r="D10">
         <v>153021</v>
       </c>
-      <c r="G10" s="1">
+      <c r="M10" s="1">
         <v>27481</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>201612</v>
       </c>
@@ -2226,13 +2436,13 @@
         <f>54179</f>
         <v>54179</v>
       </c>
-      <c r="E11">
+      <c r="D11">
         <f>156511</f>
         <v>156511</v>
       </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>201701</v>
       </c>
@@ -2244,16 +2454,16 @@
         <f>58215</f>
         <v>58215</v>
       </c>
-      <c r="E12">
+      <c r="D12">
         <f>160001</f>
         <v>160001</v>
       </c>
-      <c r="G12" s="1">
+      <c r="M12" s="1">
         <f>25443</f>
         <v>25443</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>201702</v>
       </c>
@@ -2265,34 +2475,34 @@
         <f>24251</f>
         <v>24251</v>
       </c>
-      <c r="E13">
+      <c r="D13">
         <v>163491</v>
       </c>
-      <c r="G13" s="1">
+      <c r="M13" s="1">
         <f>28093</f>
         <v>28093</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>201703</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <f>28287</f>
         <v>28287</v>
       </c>
-      <c r="E14">
+      <c r="D14">
         <f>166981</f>
         <v>166981</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="M14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>201704</v>
       </c>
@@ -2302,14 +2512,21 @@
       <c r="C15">
         <v>32323</v>
       </c>
-      <c r="E15" s="1">
+      <c r="D15" s="1">
         <v>170471</v>
       </c>
-      <c r="G15" s="1">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="M15" s="1">
         <v>28526</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>201705</v>
       </c>
@@ -2319,23 +2536,37 @@
       <c r="C16">
         <v>36359</v>
       </c>
-      <c r="E16" s="1">
+      <c r="D16" s="1">
         <v>173961</v>
       </c>
-      <c r="G16" s="1">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="M16" s="1">
         <f>28749</f>
         <v>28749</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>201706</v>
       </c>
       <c r="B17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>201707</v>
       </c>
@@ -2346,13 +2577,20 @@
       <c r="C18">
         <v>49716</v>
       </c>
-      <c r="E18" s="1">
+      <c r="D18" s="1">
         <f>187549</f>
         <v>187549</v>
       </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>201708</v>
       </c>
@@ -2362,12 +2600,19 @@
       <c r="C19">
         <v>54382</v>
       </c>
-      <c r="E19" s="1">
+      <c r="D19" s="1">
         <v>49873</v>
       </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>201709</v>
       </c>
@@ -2379,13 +2624,20 @@
         <f>59048</f>
         <v>59048</v>
       </c>
-      <c r="E20" s="1">
+      <c r="D20" s="1">
         <f>54097</f>
         <v>54097</v>
       </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>201710</v>
       </c>
@@ -2396,12 +2648,19 @@
       <c r="C21">
         <v>63714</v>
       </c>
-      <c r="E21" s="1">
+      <c r="D21" s="1">
         <v>58321</v>
       </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>201711</v>
       </c>
@@ -2412,13 +2671,20 @@
       <c r="C22">
         <v>68380</v>
       </c>
-      <c r="E22" s="1">
+      <c r="D22" s="1">
         <f>62545</f>
         <v>62545</v>
       </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>201712</v>
       </c>
@@ -2430,13 +2696,20 @@
         <f>73046</f>
         <v>73046</v>
       </c>
-      <c r="E23" s="1">
+      <c r="D23" s="1">
         <f>66769</f>
         <v>66769</v>
       </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>201801</v>
       </c>
@@ -2448,16 +2721,23 @@
         <f>77712</f>
         <v>77712</v>
       </c>
-      <c r="E24" s="1">
+      <c r="D24" s="1">
         <f>70993</f>
         <v>70993</v>
       </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>201803</v>
       </c>
@@ -2468,23 +2748,53 @@
       <c r="C26">
         <v>87044</v>
       </c>
-      <c r="E26" s="1">
+      <c r="D26" s="1">
         <f>79441</f>
         <v>79441</v>
       </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E26" s="1">
+        <f>76922</f>
+        <v>76922</v>
+      </c>
+      <c r="F26" s="1">
+        <f>90470</f>
+        <v>90470</v>
+      </c>
+      <c r="G26" s="1">
+        <v>30959</v>
+      </c>
+      <c r="H26" s="1">
+        <v>123645</v>
+      </c>
+      <c r="I26" s="1">
+        <v>97286</v>
+      </c>
+      <c r="J26" s="1">
+        <v>12106</v>
+      </c>
+      <c r="K26" s="1">
+        <v>18562</v>
+      </c>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B27" s="1"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>1386</v>
@@ -2493,19 +2803,42 @@
         <v>2334</v>
       </c>
       <c r="D29">
-        <v>1830</v>
-      </c>
-      <c r="E29">
         <f>2112</f>
         <v>2112</v>
       </c>
+      <c r="E29">
+        <f>1674</f>
+        <v>1674</v>
+      </c>
+      <c r="F29">
+        <v>1578</v>
+      </c>
       <c r="G29">
+        <f>723</f>
+        <v>723</v>
+      </c>
+      <c r="H29">
+        <f>1086</f>
+        <v>1086</v>
+      </c>
+      <c r="I29">
+        <f>1674</f>
+        <v>1674</v>
+      </c>
+      <c r="J29">
+        <v>1053</v>
+      </c>
+      <c r="K29">
+        <f>1854</f>
+        <v>1854</v>
+      </c>
+      <c r="M29">
         <v>1325</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <f>B29/0.12</f>
@@ -2517,37 +2850,30 @@
       </c>
       <c r="D31">
         <f>D29/0.12</f>
-        <v>15250</v>
-      </c>
-      <c r="E31">
-        <f>E29/0.12</f>
         <v>17600</v>
       </c>
-      <c r="G31">
-        <f>G29/0.12</f>
+      <c r="M31">
+        <f>M29/0.12</f>
         <v>11041.666666666668</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <v>12000</v>
       </c>
       <c r="D33">
-        <v>14000</v>
-      </c>
-      <c r="E33">
         <v>16000</v>
       </c>
-      <c r="G33">
+      <c r="M33">
         <v>12500</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -2555,33 +2881,27 @@
       <c r="D34">
         <v>6</v>
       </c>
-      <c r="E34">
+      <c r="M34">
         <v>6</v>
       </c>
-      <c r="G34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>11100</v>
       </c>
       <c r="D35">
-        <v>16500</v>
-      </c>
-      <c r="E35">
         <v>19200</v>
       </c>
-      <c r="G35">
+      <c r="M35">
         <v>1250</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -2589,16 +2909,13 @@
       <c r="D36">
         <v>6</v>
       </c>
-      <c r="E36">
+      <c r="M36">
         <v>6</v>
       </c>
-      <c r="G36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <f>(B33*B34+B35*B36)/12</f>
@@ -2606,37 +2923,30 @@
       </c>
       <c r="D37">
         <f>(D33*D34+D35*D36)/12</f>
-        <v>15250</v>
-      </c>
-      <c r="E37">
-        <f>(E33*E34+E35*E36)/12</f>
         <v>17600</v>
       </c>
-      <c r="G37">
-        <f>(G33*G34+G35*G36)/12</f>
+      <c r="M37">
+        <f>(M33*M34+M35*M36)/12</f>
         <v>6875</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40">
         <v>10500</v>
       </c>
       <c r="D40">
-        <v>12000</v>
-      </c>
-      <c r="E40">
         <v>13500</v>
       </c>
-      <c r="G40">
+      <c r="M40">
         <v>10000</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41">
         <v>7</v>
@@ -2644,33 +2954,27 @@
       <c r="D41">
         <v>7</v>
       </c>
-      <c r="E41">
-        <v>7</v>
-      </c>
-      <c r="G41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="M41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42">
         <v>12000</v>
       </c>
       <c r="D42">
-        <v>14000</v>
-      </c>
-      <c r="E42">
         <v>16000</v>
       </c>
-      <c r="G42">
+      <c r="M42">
         <v>12500</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43">
         <f>12-B41</f>
@@ -2680,18 +2984,14 @@
         <f>12-D41</f>
         <v>5</v>
       </c>
-      <c r="E43">
-        <f>12-E41</f>
+      <c r="M43">
+        <f>12-M41</f>
         <v>5</v>
       </c>
-      <c r="G43">
-        <f>12-G41</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44">
         <f>(B40*B41+B42*B43)/12</f>
@@ -2699,14 +2999,10 @@
       </c>
       <c r="D44">
         <f>(D40*D41+D42*D43)/12</f>
-        <v>12833.333333333334</v>
-      </c>
-      <c r="E44">
-        <f>(E40*E41+E42*E43)/12</f>
         <v>14541.666666666666</v>
       </c>
-      <c r="G44">
-        <f>(G40*G41+G42*G43)/12</f>
+      <c r="M44">
+        <f>(M40*M41+M42*M43)/12</f>
         <v>11041.666666666666</v>
       </c>
     </row>
